--- a/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFA9D0B-85B2-44F4-85FA-AF48C5B92220}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0D130-3FB9-4E41-A707-8233BE3EB869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27285" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_SolWin" sheetId="4" r:id="rId1"/>
@@ -21,20 +21,12 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>~FI_T</t>
   </si>
@@ -325,16 +317,22 @@
   </si>
   <si>
     <t>Power Plants New 2 - Solar energy</t>
+  </si>
+  <si>
+    <t>dumcom_sets</t>
+  </si>
+  <si>
+    <t>commodity to test sets defaulting to NRG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="214" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -623,14 +621,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -756,86 +754,86 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="11" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="calculated" xfId="3"/>
-    <cellStyle name="Calculation 2" xfId="4"/>
-    <cellStyle name="Comma 10" xfId="5"/>
-    <cellStyle name="Comma 11" xfId="6"/>
-    <cellStyle name="Comma 2" xfId="7"/>
-    <cellStyle name="Comma 2 2" xfId="8"/>
-    <cellStyle name="Comma 2 3" xfId="9"/>
-    <cellStyle name="Comma 2 4" xfId="10"/>
-    <cellStyle name="Comma 2 5" xfId="11"/>
-    <cellStyle name="Comma 3" xfId="12"/>
+    <cellStyle name="calculated" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Calculation 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 11" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Good" xfId="13" builtinId="26"/>
-    <cellStyle name="Hyperlink 3" xfId="14"/>
+    <cellStyle name="Hyperlink 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="15"/>
-    <cellStyle name="Normal 11" xfId="16"/>
-    <cellStyle name="Normal 11 2" xfId="17"/>
-    <cellStyle name="Normal 11 3" xfId="18"/>
-    <cellStyle name="Normal 11 4" xfId="19"/>
-    <cellStyle name="Normal 12" xfId="20"/>
-    <cellStyle name="Normal 12 2" xfId="21"/>
-    <cellStyle name="Normal 12 3" xfId="22"/>
-    <cellStyle name="Normal 12 4" xfId="23"/>
-    <cellStyle name="Normal 2" xfId="24"/>
-    <cellStyle name="Normal 2 2" xfId="25"/>
-    <cellStyle name="Normal 2 3" xfId="26"/>
-    <cellStyle name="Normal 2 4" xfId="27"/>
-    <cellStyle name="Normal 3" xfId="28"/>
-    <cellStyle name="Normal 39" xfId="29"/>
-    <cellStyle name="Normal 4" xfId="30"/>
-    <cellStyle name="Normal 4 2" xfId="31"/>
-    <cellStyle name="Normal 8" xfId="32"/>
-    <cellStyle name="Normal 9 2" xfId="33"/>
-    <cellStyle name="Normale_B2020" xfId="34"/>
-    <cellStyle name="Note 2" xfId="35"/>
-    <cellStyle name="Percent 2" xfId="36"/>
-    <cellStyle name="Percent 2 2" xfId="37"/>
-    <cellStyle name="Percent 2 2 2" xfId="38"/>
-    <cellStyle name="Percent 2 3" xfId="39"/>
-    <cellStyle name="Percent 3" xfId="40"/>
-    <cellStyle name="Percent 3 2" xfId="41"/>
-    <cellStyle name="Percent 3 2 2" xfId="42"/>
-    <cellStyle name="Percent 3 3" xfId="43"/>
-    <cellStyle name="Percent 3 4" xfId="44"/>
-    <cellStyle name="Percent 4" xfId="45"/>
-    <cellStyle name="Percent 4 2" xfId="46"/>
-    <cellStyle name="Percent 4 3" xfId="47"/>
-    <cellStyle name="Percent 4 4" xfId="48"/>
-    <cellStyle name="Percent 5" xfId="49"/>
-    <cellStyle name="Percent 5 2" xfId="50"/>
-    <cellStyle name="Percent 6" xfId="51"/>
-    <cellStyle name="Percent 6 2" xfId="52"/>
-    <cellStyle name="Percent 7" xfId="53"/>
-    <cellStyle name="Percent 8" xfId="54"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="55"/>
+    <cellStyle name="Normal 10" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 11" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 11 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 11 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 11 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 12" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 12 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 12 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 12 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 39" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 8" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 9 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normale_B2020" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Note 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Percent 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Percent 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 3 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Percent 3 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Percent 3 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Percent 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Percent 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Percent 4 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Percent 4 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Percent 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 6 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 7" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Percent 8" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1535,12 +1533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1751,9 +1749,15 @@
       <c r="O7" s="22"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>

--- a/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0D130-3FB9-4E41-A707-8233BE3EB869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBB9DC-59CA-4874-AA5D-2A9D5F39AD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27285" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1530" windowWidth="13755" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_SolWin" sheetId="4" r:id="rId1"/>
@@ -21,12 +21,23 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>~FI_T</t>
   </si>
@@ -323,6 +334,27 @@
   </si>
   <si>
     <t>commodity to test sets defaulting to NRG</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>ELCHYD</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>COM_BNDNET</t>
+  </si>
+  <si>
+    <t>~FI_T: COM_FR~LO</t>
+  </si>
+  <si>
+    <t>COM_TAXNET</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1569,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2297,10 +2329,62 @@
       <c r="K29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="23"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="23"/>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBB9DC-59CA-4874-AA5D-2A9D5F39AD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E096DF-D91E-4A01-A257-1CEF90A566D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="1530" windowWidth="13755" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>COM_BNDNET</t>
   </si>
   <si>
-    <t>~FI_T: COM_FR~LO</t>
-  </si>
-  <si>
     <t>COM_TAXNET</t>
+  </si>
+  <si>
+    <t>DeACT FI_T: COM_FR~LO</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E36" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>89</v>

--- a/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs-SolWin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewVEDA\Veda\Veda_models\Model_Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E096DF-D91E-4A01-A257-1CEF90A566D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0190B3-D28A-4155-AA83-B7111E3E9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1530" windowWidth="13755" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="360" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_SolWin" sheetId="4" r:id="rId1"/>
@@ -362,9 +362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -654,13 +654,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -708,21 +708,20 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,53 +758,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1567,28 +1550,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="7" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1600,792 +1583,730 @@
     <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="35"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P5" s="41" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="W5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="41" t="s">
+      <c r="X5" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:24" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="43" t="s">
+      <c r="H6" s="27"/>
+      <c r="P6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="U6" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="43" t="s">
+      <c r="V6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="43" t="s">
+      <c r="X6" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7" t="s">
+      <c r="H7" s="26"/>
+      <c r="P7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="3"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="41" t="s">
+      <c r="O11" s="22"/>
+      <c r="P11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="41" t="s">
+      <c r="S11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="V11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="41" t="s">
+      <c r="W11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="41" t="s">
+      <c r="X11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="44" t="s">
+      <c r="Q12" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="R12" s="44" t="s">
+      <c r="R12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="44" t="s">
+      <c r="T12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="W12" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="44" t="s">
+      <c r="X12" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="43" t="s">
+      <c r="N13" s="17"/>
+      <c r="P13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="str">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="str">
         <f>R14</f>
         <v>ELCRNWIN02</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>2030</v>
       </c>
-      <c r="F14" s="21">
-        <f>E14</f>
-        <v>2030</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="F14" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="23">
         <v>1</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="23">
         <v>0.35</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>1500</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>35</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="23">
         <v>0.5</v>
       </c>
-      <c r="L14" s="21">
-        <v>20</v>
-      </c>
-      <c r="M14" s="21">
+      <c r="L14" s="20">
+        <v>30</v>
+      </c>
+      <c r="M14" s="20">
         <v>31.536000000000001</v>
       </c>
-      <c r="N14" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="P14" s="45" t="s">
+      <c r="N14" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45" t="s">
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="45" t="s">
+      <c r="T14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U14" s="45" t="s">
+      <c r="U14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="V14" s="47"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45" t="s">
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="E15" s="21">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E15" s="20">
         <v>2040</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="23">
         <v>1</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="23">
         <v>0.4</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>1000</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>30</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="23">
         <v>0.45</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45" t="s">
+      <c r="N15" s="23"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="S15" s="48" t="s">
+      <c r="S15" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="45" t="s">
+      <c r="T15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="U15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="V15" s="47"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45" t="s">
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38">
         <v>2050</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
         <v>1</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="39">
         <v>0.45</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="38">
         <v>850</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="38">
         <v>25</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="39">
         <v>0.4</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="20" t="str">
         <f>R15</f>
         <v>ELCRNSOL02</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>2030</v>
       </c>
-      <c r="F17" s="21">
-        <f>E17</f>
-        <v>2030</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="F17" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="23">
         <v>0.3</v>
       </c>
-      <c r="I17" s="21">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="21">
-        <v>60</v>
-      </c>
-      <c r="K17" s="27">
+      <c r="I17" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="20">
+        <f>I17*0.02</f>
+        <v>20</v>
+      </c>
+      <c r="K17" s="23">
         <v>0.1</v>
       </c>
-      <c r="L17" s="21">
-        <v>15</v>
-      </c>
-      <c r="M17" s="21">
+      <c r="L17" s="20">
+        <v>20</v>
+      </c>
+      <c r="M17" s="20">
         <v>31.536000000000001</v>
       </c>
-      <c r="N17" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
+      <c r="N17" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>2040</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="23">
         <v>1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="23">
         <v>0.35</v>
       </c>
-      <c r="I18" s="21">
-        <v>1500</v>
-      </c>
-      <c r="J18" s="26">
-        <v>50</v>
-      </c>
-      <c r="K18" s="27">
+      <c r="I18" s="20">
+        <v>800</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" ref="J18:J19" si="0">I18*0.02</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="23">
         <v>0.08</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
+      <c r="N18" s="23"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
     </row>
     <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>2050</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <v>0.4</v>
       </c>
-      <c r="I19" s="21">
-        <v>1250</v>
-      </c>
-      <c r="J19" s="26">
-        <v>30</v>
-      </c>
-      <c r="K19" s="27">
+      <c r="I19" s="20">
+        <v>600</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K19" s="23">
         <v>0.06</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
+      <c r="N19" s="23"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P21" s="49"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
+      <c r="R22" s="20"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="D23" s="23"/>
       <c r="E23"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="N26" s="27"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="23"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="N29" s="27"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="21" t="s">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="21" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="21" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>0.13</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="21" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="21" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
